--- a/biology/Botanique/Voltziales/Voltziales.xlsx
+++ b/biology/Botanique/Voltziales/Voltziales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Voltziales sont une ordre éteint de conifères primitifs de la classe des Voltziopsida.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles ont été retrouvés sur tous les continents, datant du Carbonifère, du Permien, du Trias[1], du Crétacé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles ont été retrouvés sur tous les continents, datant du Carbonifère, du Permien, du Trias, du Crétacé.
 </t>
         </is>
       </c>
@@ -544,14 +558,89 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique et étymologie
-L'ordre a été créé en 1954 par le botaniste hongrois Gábor Andreánszky[3]. Voltzia est le genre type nommé en l'honneur du géologue français Philippe Louis Voltz, par le paléontologue français Adolphe Brongniart en 1828[4]. 
-En 2001, Alexander Doweld[5] place les Voltziales dans la classe des Voltziopsida, inconnue de l'IRMNG  (14 juillet 2022)[6].
-Phylogénie
-Les Voltziales regroupent les lignées ancestrales à partir desquelles tous les groupes de conifères modernes ont émergé. Les premiers Voltziales sont apparus au Carbonifère supérieur (Pennsylvanien)[2]. Les lignées de conifères modernes ont émergé des Voltziales lors du Permien supérieur jusqu'au Jurassique[7]. Certains Voltziales, en dehors des groupes modernes, tels que Podozamites, ont survécu au Crétacé[8]. L'un des genres les plus anciens et les plus primitifs est Walchia, connu à l'origine pour la forme de ses feuilles[2].
-Les relations de parenté entre les différentes familles de Voltziales et des Pinales qui en sont issus ont été reconstituées par le botaniste néerlandais Aljos Farjon comme suit (2008)[9] :
-Liste des familles et des genres non-classés
-Selon l'IRMNG  (14 juillet 2022)[6] :
+          <t>Historique et étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre a été créé en 1954 par le botaniste hongrois Gábor Andreánszky. Voltzia est le genre type nommé en l'honneur du géologue français Philippe Louis Voltz, par le paléontologue français Adolphe Brongniart en 1828. 
+En 2001, Alexander Doweld place les Voltziales dans la classe des Voltziopsida, inconnue de l'IRMNG  (14 juillet 2022).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Voltziales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voltziales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Voltziales regroupent les lignées ancestrales à partir desquelles tous les groupes de conifères modernes ont émergé. Les premiers Voltziales sont apparus au Carbonifère supérieur (Pennsylvanien). Les lignées de conifères modernes ont émergé des Voltziales lors du Permien supérieur jusqu'au Jurassique. Certains Voltziales, en dehors des groupes modernes, tels que Podozamites, ont survécu au Crétacé. L'un des genres les plus anciens et les plus primitifs est Walchia, connu à l'origine pour la forme de ses feuilles.
+Les relations de parenté entre les différentes familles de Voltziales et des Pinales qui en sont issus ont été reconstituées par le botaniste néerlandais Aljos Farjon comme suit (2008) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Voltziales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voltziales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des familles et des genres non-classés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (14 juillet 2022) :
 †Bartheliaceae Rothwell &amp; Mapes, 2001
 †Buriadiaceae
 †Emporiaceae
@@ -574,7 +663,7 @@
 †Sashinia S.V. Meyen, 1978
 †Sertostrobus L. Grauvogel-Stamm, 1969
 †Willsiostrobus L. Grauvogel-Stamm &amp; F. Schaarschmidt, 1978
-Selon The International Fossil Plant Names Index (IFPNI)                (14 juillet 2022)[10] :
+Selon The International Fossil Plant Names Index (IFPNI)                (14 juillet 2022) :
 sous-ordre des †Swedenborgiineae
 †Cycadocarpidiaceae
 †Majonicaceae
@@ -607,7 +696,7 @@
 †Tricranolepis
 †Uralostrobus
 †Voltzioxylon
-Selon Paleobiology Database                   (14 juillet 2022)[1] :
+Selon Paleobiology Database                   (14 juillet 2022) :
 †Bartheliaceae
 †Emporiaceae
 †Thucydiaceae
